--- a/作成資料/週報.xlsx
+++ b/作成資料/週報.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritsumei365-my.sharepoint.com/personal/is0770hx_ed_ritsumei_ac_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{000619B4-875C-4FEE-865A-427050644C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C08A6B-3B6F-4885-B573-3C7B8F2CF5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
